--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fahd\VOIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F9C178-8E7A-47D1-AC60-8FD5F97615D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D0367-F6D4-4ED8-B15F-7459324FDDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Register" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="77">
   <si>
     <t xml:space="preserve">Feature 1 : Registeration </t>
   </si>
@@ -56,9 +56,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t xml:space="preserve">redirected to Authentication page and ( AUTHENTICATION ) title will appeared </t>
-  </si>
-  <si>
     <t xml:space="preserve">4 . </t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t xml:space="preserve">5 . </t>
   </si>
   <si>
-    <t xml:space="preserve">redirected to registration page and ( CREATE AN ACCOUNT ) title will appeared </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fill all mandatory fields </t>
   </si>
   <si>
@@ -89,24 +83,12 @@
     <t xml:space="preserve">Click on Register Button </t>
   </si>
   <si>
-    <t xml:space="preserve">7 . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Sign out button to sign out from the created account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miss one or more of mandatory fields </t>
-  </si>
-  <si>
     <t xml:space="preserve">Error Message will appeared ( show  the missing mandatory field. ) </t>
   </si>
   <si>
     <t xml:space="preserve">user will enter invalid Email </t>
   </si>
   <si>
-    <t xml:space="preserve">Scenario 5 : Registeration with valid data </t>
-  </si>
-  <si>
     <t xml:space="preserve">Scenario 4 ( invalid )  : Registeration without enter one or more of the mandatory filleds  </t>
   </si>
   <si>
@@ -119,9 +101,6 @@
     <t xml:space="preserve">Scenario 1 ( invalid )  : Registeration with Existing Email address </t>
   </si>
   <si>
-    <t xml:space="preserve">user will enter existing Email </t>
-  </si>
-  <si>
     <t xml:space="preserve">Error Message will appeared ( An account using this email address has already been registered. Please enter a valid password or request a new one.  ) </t>
   </si>
   <si>
@@ -134,9 +113,6 @@
     <t xml:space="preserve">enter valid and registered Email address </t>
   </si>
   <si>
-    <t xml:space="preserve">redirected to customer profile page and ( MY ACCOUNT ) title will appeared </t>
-  </si>
-  <si>
     <t xml:space="preserve">                   Scenario 3 ( invalid )  : Login With  Missing manadtory field password</t>
   </si>
   <si>
@@ -170,36 +146,21 @@
     <t xml:space="preserve">Error Message will appeared ( Invalid password. ) </t>
   </si>
   <si>
-    <t xml:space="preserve">redirected to Blouses subcategory page and ( BLOUSES  ) title will appeared </t>
-  </si>
-  <si>
-    <t>Hover on Women Main Category</t>
-  </si>
-  <si>
     <t>Click on ( Blouses ) subcategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Select appeared blouse by click on it </t>
-  </si>
-  <si>
     <t xml:space="preserve">Feature 3 : Select Item From Subcategory </t>
   </si>
   <si>
     <t xml:space="preserve">Feature 4 : Add Selected Item To Cart </t>
   </si>
   <si>
-    <t>Hover on Resulted blouse</t>
-  </si>
-  <si>
     <t>Click on Add to cart Button</t>
   </si>
   <si>
     <t xml:space="preserve">Add to cart confirmation appeared </t>
   </si>
   <si>
-    <t>Click on Proceed to checkout button</t>
-  </si>
-  <si>
     <t>Feature 5 : Checkout Procedure</t>
   </si>
   <si>
@@ -263,7 +224,43 @@
     <t xml:space="preserve">Scenario 4 ( Valid ): Login with valid data ( Email / Password ) </t>
   </si>
   <si>
-    <t>redirected to customer profile  page and (Logout ) Button is appeared</t>
+    <t xml:space="preserve">Scenario 5 ( Valid ) : Registeration with valid data </t>
+  </si>
+  <si>
+    <t>Miss one or more of mandatory fields ( password )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user will enter existing valid Email </t>
+  </si>
+  <si>
+    <t>Click on Women Main Category</t>
+  </si>
+  <si>
+    <t>Click on ( Tops ) subcategory</t>
+  </si>
+  <si>
+    <t>user directed to Blouses Subcategory</t>
+  </si>
+  <si>
+    <t>Click on Resulted blouse</t>
+  </si>
+  <si>
+    <t>Confirmation message appeared ( Product successfully added to your shopping cart )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirected to Blouses subcategory page and ( BLOUSES  ) title will appeared </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirected to Authentication page and ( AUTHENTICATION ) title will appeared </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirected to customer profile page and ( MY ACCOUNT ) title will appeared </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirected to registration page and ( CREATE AN ACCOUNT ) title will appeared </t>
+  </si>
+  <si>
+    <t>Redirected to customer profile  page and (Logout ) Button is appeared</t>
   </si>
 </sst>
 </file>
@@ -373,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -394,14 +391,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -409,25 +409,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +727,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -773,15 +771,15 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="I8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -797,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -816,25 +814,25 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="I12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -847,10 +845,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -869,29 +867,29 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -900,739 +898,680 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-    </row>
-    <row r="20" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+    <row r="19" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="11" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="C30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C46" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="11" t="s">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="J38" s="18"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="18"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I69" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C70" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C72" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="11" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
+      <c r="C76" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="18"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="J70" s="18"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="18"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J76" s="8"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B81" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="2"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J86" s="18"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="18"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="I83:R84"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="I79:O79"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="I67:O67"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="I63:O63"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:Q35"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:O47"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="I51:O51"/>
+  <mergeCells count="48">
+    <mergeCell ref="I76:U77"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="I72:O72"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="I62:O62"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:O58"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="I44:O44"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:O30"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="I48:O48"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I41:J41"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="I12:O12"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C44:H44"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="C6:H6"/>
@@ -1648,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2D6CBC-651A-4A2B-BB92-484987F5B5EB}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61:O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,21 +1598,21 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1712,15 +1651,15 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="I8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -1736,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1755,23 +1694,23 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -1784,25 +1723,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="I14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -1830,12 +1769,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
@@ -1845,12 +1784,12 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1873,17 +1812,17 @@
       <c r="R20" s="5"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="A22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
@@ -1922,15 +1861,15 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="I27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
@@ -1946,7 +1885,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1965,23 +1904,23 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
@@ -1994,27 +1933,27 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="I33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
@@ -2026,12 +1965,12 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J35" s="18"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="18"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="6"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
@@ -2055,7 +1994,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2101,15 +2040,15 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
+      <c r="I44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
@@ -2125,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -2144,23 +2083,23 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
@@ -2173,27 +2112,27 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
+      <c r="I50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
@@ -2214,12 +2153,12 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J52" s="18"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="18"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I53" s="6"/>
@@ -2252,7 +2191,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2298,15 +2237,15 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
+      <c r="I61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
@@ -2322,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -2341,23 +2280,23 @@
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
@@ -2370,27 +2309,27 @@
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
+      <c r="I67" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
@@ -2411,12 +2350,12 @@
       <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J69" s="18"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="18"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -2440,7 +2379,6 @@
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="I27:O27"/>
-    <mergeCell ref="I48:O48"/>
     <mergeCell ref="K52:N52"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="I58:J58"/>
@@ -2465,6 +2403,7 @@
     <mergeCell ref="I65:O65"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:O48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2473,33 +2412,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B48BDB7-FDCF-4FBA-98CC-63E93A85EEE2}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+      <selection activeCell="I12" sqref="I12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -2515,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2531,38 +2470,36 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -2580,19 +2517,26 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -2602,23 +2546,48 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="C10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2627,35 +2596,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC0A12A-3C7F-402C-BEC4-06771D99BBEA}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2664,12 +2633,12 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2677,32 +2646,32 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2711,20 +2680,31 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2733,18 +2713,14 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -2752,7 +2728,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2760,39 +2736,24 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C10:H10"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="K13:N13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:O8"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2801,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97EBC66-065F-475D-97EF-18C174D1BDAE}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2813,18 +2774,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2847,22 +2808,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="I6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -2872,22 +2833,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="I8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -2903,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -2922,26 +2883,26 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="I12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -2975,7 +2936,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2996,22 +2957,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="I20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
@@ -3021,22 +2982,22 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="I22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
@@ -3052,7 +3013,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -3071,25 +3032,25 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="I26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
@@ -3108,38 +3069,24 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="18"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C26:H26"/>
-    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K28:N28"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I26:O26"/>
     <mergeCell ref="I12:P12"/>
@@ -3149,14 +3096,14 @@
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="I22:O22"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:O8"/>
-    <mergeCell ref="C12:H12"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="C10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3167,25 +3114,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA590E1-1C5D-4DBF-ACFA-675A9627EEB0}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3208,22 +3155,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="I6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -3233,22 +3180,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="I8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -3270,13 +3217,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:O8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
